--- a/RS_自動化Demo_Setup/20220329 RS Demo Setup.xlsx
+++ b/RS_自動化Demo_Setup/20220329 RS Demo Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JoeKao\Projects\RS_自動化Demo_Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3276527A-4DC4-4203-9329-23EA9C319B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD6007A-771F-45B9-BE89-9C1FE423D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6570067-3EB1-974A-9E8E-670193B02E4E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,7 +209,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[03.28]Switch尚缺接線盒
+    <t>[03.29]4070 Self Test Failed，需要再借一張
+[03.28]Switch尚缺接線盒
 (TB-2630B)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -673,7 +675,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -751,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
